--- a/SeleniumFrameworkcomp/target/classes/TestData-Dev.xlsx
+++ b/SeleniumFrameworkcomp/target/classes/TestData-Dev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Testdata" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="181">
   <si>
     <t xml:space="preserve">TC_ID</t>
   </si>
@@ -165,16 +165,13 @@
     <t xml:space="preserve">Kiran</t>
   </si>
   <si>
-    <t xml:space="preserve">kiran@textmercato.com</t>
+    <t xml:space="preserve">abcd@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">1234567892</t>
   </si>
   <si>
     <t xml:space="preserve">Abacd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abcd@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">1234567891</t>
@@ -408,6 +405,9 @@
     <t xml:space="preserve">Ptype3</t>
   </si>
   <si>
+    <t xml:space="preserve">Ptype4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Refrence</t>
   </si>
   <si>
@@ -444,6 +444,15 @@
     <t xml:space="preserve">State</t>
   </si>
   <si>
+    <t xml:space="preserve">Contact1mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact1phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Create</t>
   </si>
   <si>
@@ -525,18 +534,27 @@
     <t xml:space="preserve">Nanda:nandakv4@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">February</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEFT</t>
   </si>
   <si>
-    <t xml:space="preserve">RTGS</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMPS</t>
   </si>
   <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallets</t>
+  </si>
+  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
@@ -559,6 +577,12 @@
   </si>
   <si>
     <t xml:space="preserve">jaynager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12352abc</t>
   </si>
 </sst>
 </file>
@@ -700,73 +724,73 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -781,16 +805,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -803,6 +827,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -884,35 +916,36 @@
   </sheetPr>
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG7" activeCellId="0" sqref="AG7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE7" activeCellId="0" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="57.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="78.9838056680162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="53.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="27.2793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="8" style="1" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="18.5668016194332"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="14.7408906882591"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="12.3967611336032"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="19.4372469635628"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="1" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="62.8421052631579"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="86.4089068825911"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="35.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="1" width="22.995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="22.995951417004"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="20.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="10.995951417004"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.4251012145749"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="12.2834008097166"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="11.8542510121458"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="13.5668016194332"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="36" min="32" style="2" width="10.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="1" width="10.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,58 +1095,58 @@
       <c r="Q2" s="13" t="n">
         <v>123123123</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="14" t="n">
+      <c r="U2" s="6" t="n">
         <v>12345678951357</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AD2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AE2" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>34</v>
@@ -1122,13 +1155,13 @@
         <v>123123123</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="I3" s="11" t="n">
         <v>9901397212</v>
@@ -1158,13 +1191,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>34</v>
@@ -1173,13 +1206,13 @@
         <v>123123123</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="11" t="n">
         <v>9901397212</v>
@@ -1209,13 +1242,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>34</v>
@@ -1224,13 +1257,13 @@
         <v>123123123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>9901397212</v>
@@ -1260,13 +1293,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>34</v>
@@ -1275,16 +1308,16 @@
         <v>123123123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>38</v>
@@ -1311,13 +1344,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>34</v>
@@ -1326,13 +1359,13 @@
         <v>123123123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="I7" s="11" t="n">
         <v>9901397212</v>
@@ -1362,13 +1395,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>34</v>
@@ -1377,13 +1410,13 @@
         <v>123123123</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="I8" s="11" t="n">
         <v>9901397212</v>
@@ -1413,13 +1446,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="8" t="n">
         <v>123123123</v>
@@ -1427,44 +1460,26 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8" t="n">
         <v>123123123</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0"/>
-    </row>
     <row r="15" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0"/>
+      <c r="B15" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="134" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16" t="s">
-        <v>73</v>
+      <c r="B18" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2451,7 +2466,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://dev.textmercato.com/&#10;"/>
     <hyperlink ref="C2" r:id="rId2" display="QA_manager@textmercato.com"/>
-    <hyperlink ref="Y2" r:id="rId3" display="kiran@textmercato.com"/>
+    <hyperlink ref="Y2" r:id="rId3" display="abcd@gmail.com"/>
     <hyperlink ref="AB2" r:id="rId4" display="abcd@gmail.com"/>
     <hyperlink ref="B3" r:id="rId5" display="http://dev.textmercato.com/&#10;"/>
     <hyperlink ref="B4" r:id="rId6" display="http://dev.textmercato.com/&#10;"/>
@@ -2477,466 +2492,487 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:2"/>
+  <dimension ref="A1:BS2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BR1" activeCellId="0" sqref="BR1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BK1" activeCellId="0" sqref="BK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="39.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="30.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="18.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.995951417004"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="36.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="50.417004048583"/>
-    <col collapsed="false" hidden="false" max="22" min="19" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="46.8461538461539"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="27.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="15" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="15" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="15" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="33" min="32" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="40" min="39" style="2" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="2" width="26.2793522267206"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="2" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="2" width="11.2834008097166"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="2" width="8.85425101214575"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="2" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="2" width="13.5668016194332"/>
-    <col collapsed="false" hidden="false" max="49" min="47" style="2" width="7.85425101214575"/>
-    <col collapsed="false" hidden="false" max="51" min="50" style="2" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="2" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="2" width="20.2793522267206"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="15" width="9.99595141700405"/>
-    <col collapsed="false" hidden="false" max="56" min="55" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="2" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="2" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="62" min="59" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="14.7408906882591"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="12.3967611336032"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="19.4372469635628"/>
-    <col collapsed="false" hidden="false" max="1023" min="71" style="2" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="9.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="16" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="16" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="28.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="16" width="43.2753036437247"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="16" width="24.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="16" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="16" width="33.5627530364372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="16" width="20.2793522267206"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="16" width="24.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="16" width="39.5627530364373"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="16" width="51.1295546558704"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="16" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="16" width="55.1295546558704"/>
+    <col collapsed="false" hidden="false" max="22" min="19" style="16" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="16" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="16" width="51.2753036437247"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="16" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="6" width="27.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="16" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="16" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="6" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="6" width="18.5668016194332"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="16" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="16" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="16" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="16" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="16" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="16" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="40" min="39" style="16" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="16" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="16" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="16" width="12.1417004048583"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="16" width="9.57085020242915"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="16" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="16" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="50" min="47" style="16" width="8.4251012145749"/>
+    <col collapsed="false" hidden="false" max="52" min="51" style="16" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="16" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="16" width="21.995951417004"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="6" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="57" min="56" style="16" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="16" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="16" width="12.5668016194332"/>
+    <col collapsed="false" hidden="false" max="63" min="60" style="16" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="22.4251012145749"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="14.1902834008097"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="0" width="11.8542510121458"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="0" width="13.5668016194332"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="72" style="16" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="W1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="X1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="Y1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AB1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AC1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AS1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AT1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AU1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AV1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AW1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AX1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AY1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="BA1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BB1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BC1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BK1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
+      <c r="BL1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>136</v>
+      </c>
       <c r="BP1" s="0"/>
       <c r="BQ1" s="0"/>
       <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
     </row>
-    <row r="2" s="15" customFormat="true" ht="158" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="20" t="n">
+    <row r="2" s="6" customFormat="true" ht="145" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="20" t="n">
+      <c r="E2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="20" t="n">
+      <c r="H2" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="20" t="n">
+      <c r="I2" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="20" t="n">
+      <c r="J2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="23" t="n">
         <v>8</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="O2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="P2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="Q2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="X2" s="20" t="s">
+      <c r="U2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="V2" s="13" t="s">
         <v>150</v>
       </c>
+      <c r="W2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="Z2" s="24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AC2" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AD2" s="25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AE2" s="25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF2" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AG2" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="AI2" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>159</v>
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="AK2" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN2" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP2" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ2" s="15" t="n">
-        <v>2017</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS2" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS2" s="6" t="n">
         <v>6000</v>
       </c>
-      <c r="AT2" s="15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU2" s="15" t="s">
+      <c r="AT2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AY2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AV2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AW2" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX2" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY2" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC2" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BD2" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE2" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="BF2" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="BG2" s="15" t="s">
+      <c r="AZ2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA2" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BB2" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BD2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BK2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BK2" s="0"/>
-      <c r="BL2" s="0"/>
-      <c r="BM2" s="0"/>
-      <c r="BN2" s="0"/>
-      <c r="BO2" s="0"/>
+      <c r="BL2" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN2" s="27" t="n">
+        <v>1234567891</v>
+      </c>
+      <c r="BO2" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="BP2" s="0"/>
       <c r="BQ2" s="0"/>
       <c r="BR2" s="0"/>
-      <c r="AMJ2" s="2"/>
+      <c r="BS2" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AO2" r:id="rId1" display="Nanda:nandakv4@gmail.com"/>
+    <hyperlink ref="BM2" r:id="rId2" display="abcd@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
